--- a/Commands.xlsx
+++ b/Commands.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Yasen\Work\DA\excel_tutorial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{777AF50A-D31B-40D7-A5D2-0D7D785A5D6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CE6679E-48E0-47DB-865C-919E4B023507}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17550" yWindow="0" windowWidth="11250" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Functions" sheetId="3" r:id="rId1"/>
     <sheet name="Shortcuts" sheetId="1" r:id="rId2"/>
     <sheet name="Op Er" sheetId="2" r:id="rId3"/>
+    <sheet name="разширено" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,8 +36,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="130">
   <si>
     <t>concat &amp;</t>
   </si>
@@ -227,27 +250,9 @@
     <t>==</t>
   </si>
   <si>
-    <t>A1 &amp; " - " &amp; B1</t>
-  </si>
-  <si>
-    <t>countIF</t>
-  </si>
-  <si>
     <t>&gt;=</t>
   </si>
   <si>
-    <t>A1 = B1</t>
-  </si>
-  <si>
-    <t>A1 &gt;= B1</t>
-  </si>
-  <si>
-    <t>A:A ; "&lt;=5"</t>
-  </si>
-  <si>
-    <t>A:A ; "&lt;=" &amp; B1</t>
-  </si>
-  <si>
     <t>#DIV/0</t>
   </si>
   <si>
@@ -285,13 +290,188 @@
   </si>
   <si>
     <t>формулата се опитва да използва пресичане на два обсега, дето не се пресичат</t>
+  </si>
+  <si>
+    <t>IF nested</t>
+  </si>
+  <si>
+    <t>IF</t>
+  </si>
+  <si>
+    <t>(A1 = 5; "Y" ; "N")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(A1 = 5; "Y";  IF( A1 &gt; 5; "5+"; IF(A1&lt;5; "5-"))) </t>
+  </si>
+  <si>
+    <t>(A:A ; "&lt;=" &amp; B1)</t>
+  </si>
+  <si>
+    <t>(A1 &amp; " - " &amp; B1)</t>
+  </si>
+  <si>
+    <t>(A1 = B1)</t>
+  </si>
+  <si>
+    <t>(A1 &gt;= B1)</t>
+  </si>
+  <si>
+    <t>AND()</t>
+  </si>
+  <si>
+    <t>OR()</t>
+  </si>
+  <si>
+    <t>ако поне едното</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>IFS</t>
+  </si>
+  <si>
+    <t>IF( OR (A1=5; B1=4); "y"; "n")</t>
+  </si>
+  <si>
+    <t>MATH FUN</t>
+  </si>
+  <si>
+    <t>IF FUN</t>
+  </si>
+  <si>
+    <t>COUNT</t>
+  </si>
+  <si>
+    <t>брой всичко, освен празни клетки</t>
+  </si>
+  <si>
+    <t>count a</t>
+  </si>
+  <si>
+    <t>count if</t>
+  </si>
+  <si>
+    <t>count ifs</t>
+  </si>
+  <si>
+    <t>(A:A ; "&lt;=5")</t>
+  </si>
+  <si>
+    <t>COUNTIFS(A:A; "&gt;5";  A:A;"&lt;10" )</t>
+  </si>
+  <si>
+    <t>STATISTIC FUN</t>
+  </si>
+  <si>
+    <t>MEDIAN</t>
+  </si>
+  <si>
+    <t>име</t>
+  </si>
+  <si>
+    <t>категория</t>
+  </si>
+  <si>
+    <t>синтаксис</t>
+  </si>
+  <si>
+    <t>описание</t>
+  </si>
+  <si>
+    <t>(А:А)</t>
+  </si>
+  <si>
+    <t>(10, 90, 100) = 90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">медиана - конкретното число, която е по средата в сета </t>
+  </si>
+  <si>
+    <t>STDEV.S - semple</t>
+  </si>
+  <si>
+    <t>STDEV.P - population</t>
+  </si>
+  <si>
+    <t>Популационно стандартно отклонение</t>
+  </si>
+  <si>
+    <t>Извадково стандартно отклонение</t>
+  </si>
+  <si>
+    <t>показва колко разпръснати са стойностите около средното</t>
+  </si>
+  <si>
+    <t>Малко стандартно отклонение означава, че данните са близо до средната стойност.
+Голямо стандартно отклонение означава, че данните са широко разпръснати.</t>
+  </si>
+  <si>
+    <t>Квартил (Quartile)</t>
+  </si>
+  <si>
+    <t>Статистическа мярка, която разделя подреден набор от данни на четири равни части. Той помага да се анализира разпределението на данните и да се разбере размахът на стойностите.</t>
+  </si>
+  <si>
+    <t>Мярка за разсейването на стойностите в даден набор от данни спрямо средната им стойност. То показва колко близо или далеч са данните от средното аритметично.</t>
+  </si>
+  <si>
+    <t>Standard deviation (Стандартно отклонение)</t>
+  </si>
+  <si>
+    <t>Първи квартил (Q1) – Долният квартил
+    Това е 25%-тният перцентил (границата, под която попадат 25% от данните).
+    Той е медианата на долната половина на набора от данни.</t>
+  </si>
+  <si>
+    <t>Втори квартил (Q2) – Медианата
+    Това е 50%-тният перцентил (средната стойност, която разделя данните на две равни части).</t>
+  </si>
+  <si>
+    <t>Трети квартил (Q3) – Горният квартил
+    Това е 75%-тният перцентил (границата, под която попадат 75% от данните).
+    Той е медианата на горната половина на набора от данни.</t>
+  </si>
+  <si>
+    <t>Интерквартилен размах (IQR - Interquartile Range)
+    Изчислява се като:
+    IQR=Q3−Q1
+    IQR=Q3−Q1
+    Той показва диапазона, в който се намират средните 50% от данните.</t>
+  </si>
+  <si>
+    <t>Пример:
+Ако имаме следния подреден набор от данни:
+2, 4, 5, 7, 8, 10, 12, 14, 15, 18, 20
+    Q1 (първи квартил) = 5 (медиана на долната половина: 2, 4, 5, 7, 8)
+    Q2 (медиана) = 10 (средната стойност)
+    Q3 (трети квартил) = 15 (медиана на горната половина: 12, 14, 15, 18, 20)
+    IQR = 15 - 5 = 10</t>
+  </si>
+  <si>
+    <t>MODE</t>
+  </si>
+  <si>
+    <t>най-често срещаната стойност</t>
+  </si>
+  <si>
+    <t>(2, 5, 8, 2, 3, 2, 4) = 2</t>
+  </si>
+  <si>
+    <t>AVERAGEIF</t>
+  </si>
+  <si>
+    <t>показва на кое място (според големината си) се намира това число</t>
+  </si>
+  <si>
+    <t>RANK.EQ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -307,13 +487,48 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -328,15 +543,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
@@ -345,11 +557,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -631,72 +858,228 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8846EC83-3422-4620-BB61-4CDF2B1889AA}">
-  <dimension ref="B1:F6"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="11.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="4" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="3" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D4" s="1">
-        <v>5</v>
+      <c r="C4" s="4" t="s">
+        <v>84</v>
       </c>
       <c r="E4" s="1">
         <v>5</v>
       </c>
       <c r="F4" s="1" t="b">
         <f>D4&gt;=E4</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="5" t="s">
-        <v>69</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="4"/>
+    </row>
+    <row r="12" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="4"/>
+    </row>
+    <row r="13" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C13" s="4"/>
+    </row>
+    <row r="14" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16" s="1" t="str" cm="1">
+        <f t="array" ref="C16">_xlfn.IFS( A1="", "no data",  A1&lt;=0, "negative or zero",  A1&gt;0, "it's OK")</f>
+        <v>it's OK</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D28" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -714,180 +1097,180 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="2" width="22.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="22.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.5703125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="1" t="s">
         <v>42</v>
       </c>
     </row>
@@ -898,10 +1281,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{950936B3-FE32-4EE1-A562-BD5CAA304DF1}">
-  <dimension ref="B8:C38"/>
+  <dimension ref="B8:E38"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView topLeftCell="A22" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -916,66 +1299,66 @@
   <sheetData>
     <row r="8" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>70</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>79</v>
-      </c>
     </row>
     <row r="12" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="7" t="e">
+      <c r="B12" s="5" t="e">
         <v>#N/A</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>44</v>
       </c>
@@ -983,7 +1366,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>45</v>
       </c>
@@ -991,7 +1374,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>46</v>
       </c>
@@ -999,7 +1382,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>47</v>
       </c>
@@ -1007,7 +1390,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>48</v>
       </c>
@@ -1015,7 +1398,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>49</v>
       </c>
@@ -1023,7 +1406,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>50</v>
       </c>
@@ -1031,7 +1414,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>51</v>
       </c>
@@ -1039,7 +1422,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>52</v>
       </c>
@@ -1047,25 +1430,151 @@
         <v>53</v>
       </c>
     </row>
+    <row r="29" spans="2:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D29" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C30" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D30" s="6" t="b">
+        <f>AND(B30,C30)</f>
+        <v>1</v>
+      </c>
+      <c r="E30" s="6" t="b">
+        <f>OR(B30,C30)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C31" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="D31" s="7" t="b">
+        <f t="shared" ref="D31:D32" si="0">AND(B31,C31)</f>
+        <v>0</v>
+      </c>
+      <c r="E31" s="6" t="b">
+        <f t="shared" ref="E31:E32" si="1">OR(B31,C31)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="C32" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="D32" s="7" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E32" s="7" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
     <row r="33" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="4"/>
+      <c r="C33" s="3"/>
     </row>
     <row r="34" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C34" s="5"/>
+      <c r="C34" s="4"/>
     </row>
     <row r="35" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
     </row>
     <row r="36" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
     </row>
     <row r="37" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C37" s="5"/>
+      <c r="C37" s="4"/>
     </row>
     <row r="38" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C38" s="5"/>
+      <c r="C38" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F74FD70-50CA-4A85-9563-4F1369E64BE3}">
+  <dimension ref="B1:B11"/>
+  <sheetViews>
+    <sheetView topLeftCell="A8" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="9"/>
+    <col min="2" max="2" width="81.5703125" style="9" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B2" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B3" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B6" s="9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" ht="63" x14ac:dyDescent="0.25">
+      <c r="B7" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" ht="63" x14ac:dyDescent="0.25">
+      <c r="B8" s="9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" ht="63" x14ac:dyDescent="0.25">
+      <c r="B9" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="B10" s="9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" ht="141.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="9" t="s">
+        <v>123</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
